--- a/nr-test-debug/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/nr-test-debug/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T11:38:12+00:00</t>
+    <t>2025-07-08T12:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
